--- a/_ref/es_lists.xlsx
+++ b/_ref/es_lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="15620" activeTab="1"/>
@@ -10,6 +10,9 @@
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
     <sheet name="UPC" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">UPC!$A$1:$A$43</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1283,7 +1286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1303,6 +1306,10 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1733,7 +1740,6 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125"/>
     <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8483,7 +8489,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection sqref="A1:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9128,6 +9134,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
